--- a/Jasper Files/data/delNP/delNP-100pod-50pol.xlsx
+++ b/Jasper Files/data/delNP/delNP-100pod-50pol.xlsx
@@ -516,28 +516,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.01070892065763474</v>
+        <v>0.05350392300169915</v>
       </c>
       <c r="C2">
-        <v>226552</v>
+        <v>447282</v>
       </c>
       <c r="D2">
-        <v>389120</v>
+        <v>612319</v>
       </c>
       <c r="E2">
-        <v>162568</v>
+        <v>165037</v>
       </c>
       <c r="F2">
-        <v>0.009240750223398209</v>
+        <v>0.02027513307984918</v>
       </c>
       <c r="G2">
-        <v>35383</v>
+        <v>38909</v>
       </c>
       <c r="H2">
-        <v>77855</v>
+        <v>80917</v>
       </c>
       <c r="I2">
-        <v>42472</v>
+        <v>42008</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -545,25 +545,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03716405481100082</v>
+        <v>0.0279363909503445</v>
       </c>
       <c r="C3">
-        <v>344166</v>
+        <v>237117</v>
       </c>
       <c r="D3">
-        <v>635090</v>
+        <v>478057</v>
       </c>
       <c r="E3">
-        <v>290924</v>
+        <v>240940</v>
       </c>
       <c r="F3">
-        <v>0.00620553269982338</v>
+        <v>0.0215627170400694</v>
       </c>
       <c r="G3">
-        <v>34640</v>
+        <v>35622</v>
       </c>
       <c r="H3">
-        <v>77136</v>
+        <v>78118</v>
       </c>
       <c r="I3">
         <v>42496</v>
@@ -574,28 +574,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01903253048658371</v>
+        <v>0.02187160402536392</v>
       </c>
       <c r="C4">
-        <v>336205</v>
+        <v>234296</v>
       </c>
       <c r="D4">
-        <v>507253</v>
+        <v>400258</v>
       </c>
       <c r="E4">
-        <v>171048</v>
+        <v>165962</v>
       </c>
       <c r="F4">
-        <v>0.005509015172719955</v>
+        <v>0.02767294901423156</v>
       </c>
       <c r="G4">
-        <v>34119</v>
+        <v>35709</v>
       </c>
       <c r="H4">
-        <v>76459</v>
+        <v>78047</v>
       </c>
       <c r="I4">
-        <v>42340</v>
+        <v>42338</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -603,28 +603,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0216338038444519</v>
+        <v>0.04704729409422725</v>
       </c>
       <c r="C5">
-        <v>341952</v>
+        <v>233752</v>
       </c>
       <c r="D5">
-        <v>505012</v>
+        <v>399218</v>
       </c>
       <c r="E5">
-        <v>163060</v>
+        <v>165466</v>
       </c>
       <c r="F5">
-        <v>0.007981624454259872</v>
+        <v>0.02460491901729256</v>
       </c>
       <c r="G5">
-        <v>34851</v>
+        <v>36559</v>
       </c>
       <c r="H5">
-        <v>77347</v>
+        <v>78901</v>
       </c>
       <c r="I5">
-        <v>42496</v>
+        <v>42342</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -632,28 +632,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02102384343743324</v>
+        <v>0.02129596297163516</v>
       </c>
       <c r="C6">
-        <v>297437</v>
+        <v>233842</v>
       </c>
       <c r="D6">
-        <v>476219</v>
+        <v>399385</v>
       </c>
       <c r="E6">
-        <v>178782</v>
+        <v>165543</v>
       </c>
       <c r="F6">
-        <v>0.005123421549797058</v>
+        <v>0.02195780002512038</v>
       </c>
       <c r="G6">
-        <v>34119</v>
+        <v>35623</v>
       </c>
       <c r="H6">
-        <v>76615</v>
+        <v>77808</v>
       </c>
       <c r="I6">
-        <v>42496</v>
+        <v>42185</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -661,28 +661,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.03174417465925217</v>
+        <v>0.02849760197568685</v>
       </c>
       <c r="C7">
-        <v>351917</v>
+        <v>212803</v>
       </c>
       <c r="D7">
-        <v>598472</v>
+        <v>385421</v>
       </c>
       <c r="E7">
-        <v>246555</v>
+        <v>172618</v>
       </c>
       <c r="F7">
-        <v>0.009212836623191833</v>
+        <v>0.01584711403120309</v>
       </c>
       <c r="G7">
-        <v>34117</v>
+        <v>35995</v>
       </c>
       <c r="H7">
-        <v>76613</v>
+        <v>78181</v>
       </c>
       <c r="I7">
-        <v>42496</v>
+        <v>42186</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -690,25 +690,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01367209479212761</v>
+        <v>0.06140020000748336</v>
       </c>
       <c r="C8">
-        <v>230770</v>
+        <v>440846</v>
       </c>
       <c r="D8">
-        <v>394338</v>
+        <v>603691</v>
       </c>
       <c r="E8">
-        <v>163568</v>
+        <v>162845</v>
       </c>
       <c r="F8">
-        <v>0.006347872316837311</v>
+        <v>0.02660755999386311</v>
       </c>
       <c r="G8">
-        <v>34279</v>
+        <v>36029</v>
       </c>
       <c r="H8">
-        <v>76775</v>
+        <v>78525</v>
       </c>
       <c r="I8">
         <v>42496</v>
@@ -719,28 +719,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0115421861410141</v>
+        <v>0.03305751795414835</v>
       </c>
       <c r="C9">
-        <v>225613</v>
+        <v>227469</v>
       </c>
       <c r="D9">
-        <v>389197</v>
+        <v>390197</v>
       </c>
       <c r="E9">
-        <v>163584</v>
+        <v>162728</v>
       </c>
       <c r="F9">
-        <v>0.01009483262896538</v>
+        <v>0.02749410795513541</v>
       </c>
       <c r="G9">
-        <v>34663</v>
+        <v>36285</v>
       </c>
       <c r="H9">
-        <v>77006</v>
+        <v>78781</v>
       </c>
       <c r="I9">
-        <v>42343</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -748,28 +748,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.01276511698961258</v>
+        <v>0.02096678898669779</v>
       </c>
       <c r="C10">
-        <v>232444</v>
+        <v>220143</v>
       </c>
       <c r="D10">
-        <v>400676</v>
+        <v>374713</v>
       </c>
       <c r="E10">
-        <v>168232</v>
+        <v>154570</v>
       </c>
       <c r="F10">
-        <v>0.006697461009025574</v>
+        <v>0.01858473406173289</v>
       </c>
       <c r="G10">
-        <v>34343</v>
+        <v>35037</v>
       </c>
       <c r="H10">
-        <v>76839</v>
+        <v>77376</v>
       </c>
       <c r="I10">
-        <v>42496</v>
+        <v>42339</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -777,28 +777,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.02230853587388992</v>
+        <v>0.02703927899710834</v>
       </c>
       <c r="C11">
-        <v>349501</v>
+        <v>228762</v>
       </c>
       <c r="D11">
-        <v>623129</v>
+        <v>392562</v>
       </c>
       <c r="E11">
-        <v>273628</v>
+        <v>163800</v>
       </c>
       <c r="F11">
-        <v>0.0070464126765728</v>
+        <v>0.01823086303193122</v>
       </c>
       <c r="G11">
-        <v>34874</v>
+        <v>35536</v>
       </c>
       <c r="H11">
-        <v>77217</v>
+        <v>78032</v>
       </c>
       <c r="I11">
-        <v>42343</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -806,28 +806,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.0212385356426239</v>
+        <v>0.03063752606976777</v>
       </c>
       <c r="C12">
-        <v>363111</v>
+        <v>229216</v>
       </c>
       <c r="D12">
-        <v>528071</v>
+        <v>393660</v>
       </c>
       <c r="E12">
-        <v>164960</v>
+        <v>164444</v>
       </c>
       <c r="F12">
-        <v>0.006495073437690735</v>
+        <v>0.02589636598713696</v>
       </c>
       <c r="G12">
-        <v>33959</v>
+        <v>35453</v>
       </c>
       <c r="H12">
-        <v>76455</v>
+        <v>77480</v>
       </c>
       <c r="I12">
-        <v>42496</v>
+        <v>42027</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -835,28 +835,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.01439390704035759</v>
+        <v>0.05729031190276146</v>
       </c>
       <c r="C13">
-        <v>203491</v>
+        <v>335706</v>
       </c>
       <c r="D13">
-        <v>363315</v>
+        <v>572963</v>
       </c>
       <c r="E13">
-        <v>159824</v>
+        <v>237257</v>
       </c>
       <c r="F13">
-        <v>0.01012863591313362</v>
+        <v>0.026566899032332</v>
       </c>
       <c r="G13">
-        <v>34471</v>
+        <v>36317</v>
       </c>
       <c r="H13">
-        <v>76967</v>
+        <v>78660</v>
       </c>
       <c r="I13">
-        <v>42496</v>
+        <v>42343</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -864,25 +864,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.03418353945016861</v>
+        <v>0.02922779705841094</v>
       </c>
       <c r="C14">
-        <v>338627</v>
+        <v>231209</v>
       </c>
       <c r="D14">
-        <v>581643</v>
+        <v>395865</v>
       </c>
       <c r="E14">
-        <v>243016</v>
+        <v>164656</v>
       </c>
       <c r="F14">
-        <v>0.006469491869211197</v>
+        <v>0.02956399205140769</v>
       </c>
       <c r="G14">
-        <v>34439</v>
+        <v>36189</v>
       </c>
       <c r="H14">
-        <v>76935</v>
+        <v>78685</v>
       </c>
       <c r="I14">
         <v>42496</v>
@@ -893,25 +893,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.03748804703354836</v>
+        <v>0.03986570693086833</v>
       </c>
       <c r="C15">
-        <v>454287</v>
+        <v>329214</v>
       </c>
       <c r="D15">
-        <v>531549</v>
+        <v>492846</v>
       </c>
       <c r="E15">
-        <v>77262</v>
+        <v>163632</v>
       </c>
       <c r="F15">
-        <v>0.007820680737495422</v>
+        <v>0.02598771604243666</v>
       </c>
       <c r="G15">
-        <v>34599</v>
+        <v>35549</v>
       </c>
       <c r="H15">
-        <v>77095</v>
+        <v>78045</v>
       </c>
       <c r="I15">
         <v>42496</v>
@@ -922,25 +922,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.03282025828957558</v>
+        <v>0.03622614999767393</v>
       </c>
       <c r="C16">
-        <v>343900</v>
+        <v>231479</v>
       </c>
       <c r="D16">
-        <v>504500</v>
+        <v>395455</v>
       </c>
       <c r="E16">
-        <v>160600</v>
+        <v>163976</v>
       </c>
       <c r="F16">
-        <v>0.006338447332382202</v>
+        <v>0.02604931010864675</v>
       </c>
       <c r="G16">
-        <v>34567</v>
+        <v>35837</v>
       </c>
       <c r="H16">
-        <v>77063</v>
+        <v>78333</v>
       </c>
       <c r="I16">
         <v>42496</v>
@@ -951,25 +951,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0290895514190197</v>
+        <v>0.0270668410230428</v>
       </c>
       <c r="C17">
-        <v>457523</v>
+        <v>238675</v>
       </c>
       <c r="D17">
-        <v>617131</v>
+        <v>478535</v>
       </c>
       <c r="E17">
-        <v>159608</v>
+        <v>239860</v>
       </c>
       <c r="F17">
-        <v>0.00709562748670578</v>
+        <v>0.01556936302222311</v>
       </c>
       <c r="G17">
-        <v>34655</v>
+        <v>35509</v>
       </c>
       <c r="H17">
-        <v>77127</v>
+        <v>77981</v>
       </c>
       <c r="I17">
         <v>42472</v>
@@ -980,28 +980,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.02623258531093597</v>
+        <v>0.03315894398838282</v>
       </c>
       <c r="C18">
-        <v>461122</v>
+        <v>205050</v>
       </c>
       <c r="D18">
-        <v>622734</v>
+        <v>364548</v>
       </c>
       <c r="E18">
-        <v>161612</v>
+        <v>159498</v>
       </c>
       <c r="F18">
-        <v>0.01186077669262886</v>
+        <v>0.02418428601231426</v>
       </c>
       <c r="G18">
-        <v>34503</v>
+        <v>35613</v>
       </c>
       <c r="H18">
-        <v>76845</v>
+        <v>77956</v>
       </c>
       <c r="I18">
-        <v>42342</v>
+        <v>42343</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1009,28 +1009,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.03183368965983391</v>
+        <v>0.04236943495925516</v>
       </c>
       <c r="C19">
-        <v>330039</v>
+        <v>441972</v>
       </c>
       <c r="D19">
-        <v>488799</v>
+        <v>613116</v>
       </c>
       <c r="E19">
-        <v>158760</v>
+        <v>171144</v>
       </c>
       <c r="F19">
-        <v>0.00598275288939476</v>
+        <v>0.02653435803949833</v>
       </c>
       <c r="G19">
-        <v>34023</v>
+        <v>35549</v>
       </c>
       <c r="H19">
-        <v>76365</v>
+        <v>78045</v>
       </c>
       <c r="I19">
-        <v>42342</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1038,25 +1038,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.01378346234560013</v>
+        <v>0.04225597099866718</v>
       </c>
       <c r="C20">
-        <v>224535</v>
+        <v>228412</v>
       </c>
       <c r="D20">
-        <v>387967</v>
+        <v>391948</v>
       </c>
       <c r="E20">
-        <v>163432</v>
+        <v>163536</v>
       </c>
       <c r="F20">
-        <v>0.00869157537817955</v>
+        <v>0.0325917931040749</v>
       </c>
       <c r="G20">
-        <v>33991</v>
+        <v>36157</v>
       </c>
       <c r="H20">
-        <v>76487</v>
+        <v>78653</v>
       </c>
       <c r="I20">
         <v>42496</v>
@@ -1067,28 +1067,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.03001581504940987</v>
+        <v>0.02822790492791682</v>
       </c>
       <c r="C21">
-        <v>359270</v>
+        <v>233509</v>
       </c>
       <c r="D21">
-        <v>564016</v>
+        <v>400005</v>
       </c>
       <c r="E21">
-        <v>204746</v>
+        <v>166496</v>
       </c>
       <c r="F21">
-        <v>0.006442870944738388</v>
+        <v>0.02361768705304712</v>
       </c>
       <c r="G21">
-        <v>33735</v>
+        <v>35989</v>
       </c>
       <c r="H21">
-        <v>76231</v>
+        <v>78461</v>
       </c>
       <c r="I21">
-        <v>42496</v>
+        <v>42472</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1096,28 +1096,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.01677222177386284</v>
+        <v>0.02566744794603437</v>
       </c>
       <c r="C22">
-        <v>373585</v>
+        <v>226814</v>
       </c>
       <c r="D22">
-        <v>536545</v>
+        <v>389848</v>
       </c>
       <c r="E22">
-        <v>162960</v>
+        <v>163034</v>
       </c>
       <c r="F22">
-        <v>0.01140415668487549</v>
+        <v>0.01483938505407423</v>
       </c>
       <c r="G22">
-        <v>34797</v>
+        <v>35747</v>
       </c>
       <c r="H22">
-        <v>77293</v>
+        <v>78086</v>
       </c>
       <c r="I22">
-        <v>42496</v>
+        <v>42339</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1125,28 +1125,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.02926148846745491</v>
+        <v>0.115152298938483</v>
       </c>
       <c r="C23">
-        <v>474203</v>
+        <v>353453</v>
       </c>
       <c r="D23">
-        <v>633299</v>
+        <v>589104</v>
       </c>
       <c r="E23">
-        <v>159096</v>
+        <v>235651</v>
       </c>
       <c r="F23">
-        <v>0.01308650895953178</v>
+        <v>0.0221689660102129</v>
       </c>
       <c r="G23">
-        <v>34023</v>
+        <v>36125</v>
       </c>
       <c r="H23">
-        <v>76519</v>
+        <v>78467</v>
       </c>
       <c r="I23">
-        <v>42496</v>
+        <v>42342</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1154,28 +1154,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.02255639433860779</v>
+        <v>0.03257679403759539</v>
       </c>
       <c r="C24">
-        <v>358311</v>
+        <v>238565</v>
       </c>
       <c r="D24">
-        <v>522335</v>
+        <v>475817</v>
       </c>
       <c r="E24">
-        <v>164024</v>
+        <v>237252</v>
       </c>
       <c r="F24">
-        <v>0.007051263004541397</v>
+        <v>0.01054228201974183</v>
       </c>
       <c r="G24">
-        <v>34407</v>
+        <v>35485</v>
       </c>
       <c r="H24">
-        <v>76749</v>
+        <v>77826</v>
       </c>
       <c r="I24">
-        <v>42342</v>
+        <v>42341</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1183,25 +1183,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.02180841565132141</v>
+        <v>0.02641737996600568</v>
       </c>
       <c r="C25">
-        <v>362963</v>
+        <v>228763</v>
       </c>
       <c r="D25">
-        <v>525723</v>
+        <v>393029</v>
       </c>
       <c r="E25">
-        <v>162760</v>
+        <v>164266</v>
       </c>
       <c r="F25">
-        <v>0.007002450525760651</v>
+        <v>0.02039218496065587</v>
       </c>
       <c r="G25">
-        <v>34375</v>
+        <v>35805</v>
       </c>
       <c r="H25">
-        <v>76716</v>
+        <v>78146</v>
       </c>
       <c r="I25">
         <v>42341</v>
@@ -1212,28 +1212,28 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.03326665237545967</v>
+        <v>0.05166180396918207</v>
       </c>
       <c r="C26">
-        <v>470587</v>
+        <v>432395</v>
       </c>
       <c r="D26">
-        <v>632703</v>
+        <v>597205</v>
       </c>
       <c r="E26">
-        <v>162116</v>
+        <v>164810</v>
       </c>
       <c r="F26">
-        <v>0.006024230271577835</v>
+        <v>0.02120411698706448</v>
       </c>
       <c r="G26">
-        <v>34119</v>
+        <v>35965</v>
       </c>
       <c r="H26">
-        <v>76461</v>
+        <v>78304</v>
       </c>
       <c r="I26">
-        <v>42342</v>
+        <v>42339</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1241,28 +1241,28 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.01400559395551682</v>
+        <v>0.02708109398372471</v>
       </c>
       <c r="C27">
-        <v>222459</v>
+        <v>232689</v>
       </c>
       <c r="D27">
-        <v>384243</v>
+        <v>398931</v>
       </c>
       <c r="E27">
-        <v>161784</v>
+        <v>166242</v>
       </c>
       <c r="F27">
-        <v>0.0073104128241539</v>
+        <v>0.03085929004009813</v>
       </c>
       <c r="G27">
-        <v>34055</v>
+        <v>35933</v>
       </c>
       <c r="H27">
-        <v>76239</v>
+        <v>78271</v>
       </c>
       <c r="I27">
-        <v>42184</v>
+        <v>42338</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1270,28 +1270,28 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.03172363713383675</v>
+        <v>0.05012648005504161</v>
       </c>
       <c r="C28">
-        <v>361753</v>
+        <v>442916</v>
       </c>
       <c r="D28">
-        <v>646696</v>
+        <v>607873</v>
       </c>
       <c r="E28">
-        <v>284943</v>
+        <v>164957</v>
       </c>
       <c r="F28">
-        <v>0.008448179811239243</v>
+        <v>0.02353744197171181</v>
       </c>
       <c r="G28">
-        <v>33703</v>
+        <v>35037</v>
       </c>
       <c r="H28">
-        <v>76044</v>
+        <v>77533</v>
       </c>
       <c r="I28">
-        <v>42341</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1299,28 +1299,28 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.03430190682411194</v>
+        <v>0.04412171500734985</v>
       </c>
       <c r="C29">
-        <v>298449</v>
+        <v>350585</v>
       </c>
       <c r="D29">
-        <v>462175</v>
+        <v>510585</v>
       </c>
       <c r="E29">
-        <v>163726</v>
+        <v>160000</v>
       </c>
       <c r="F29">
-        <v>0.006515327841043472</v>
+        <v>0.02071700990200043</v>
       </c>
       <c r="G29">
-        <v>34183</v>
+        <v>35773</v>
       </c>
       <c r="H29">
-        <v>76526</v>
+        <v>78269</v>
       </c>
       <c r="I29">
-        <v>42343</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1328,25 +1328,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.0361064076423645</v>
+        <v>0.03669421910308301</v>
       </c>
       <c r="C30">
-        <v>450856</v>
+        <v>339618</v>
       </c>
       <c r="D30">
-        <v>612712</v>
+        <v>516815</v>
       </c>
       <c r="E30">
-        <v>161856</v>
+        <v>177197</v>
       </c>
       <c r="F30">
-        <v>0.007017679512500763</v>
+        <v>0.01557496294844896</v>
       </c>
       <c r="G30">
-        <v>34695</v>
+        <v>35229</v>
       </c>
       <c r="H30">
-        <v>77191</v>
+        <v>77725</v>
       </c>
       <c r="I30">
         <v>42496</v>
@@ -1357,28 +1357,28 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.01540875434875488</v>
+        <v>0.03690216096583754</v>
       </c>
       <c r="C31">
-        <v>230128</v>
+        <v>216495</v>
       </c>
       <c r="D31">
-        <v>389080</v>
+        <v>379151</v>
       </c>
       <c r="E31">
-        <v>158952</v>
+        <v>162656</v>
       </c>
       <c r="F31">
-        <v>0.006884131580591202</v>
+        <v>0.02480031899176538</v>
       </c>
       <c r="G31">
-        <v>34559</v>
+        <v>35741</v>
       </c>
       <c r="H31">
-        <v>77031</v>
+        <v>78237</v>
       </c>
       <c r="I31">
-        <v>42472</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1386,28 +1386,28 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.02322250232100487</v>
+        <v>0.02967478800565004</v>
       </c>
       <c r="C32">
-        <v>478131</v>
+        <v>237443</v>
       </c>
       <c r="D32">
-        <v>639875</v>
+        <v>476872</v>
       </c>
       <c r="E32">
-        <v>161744</v>
+        <v>239429</v>
       </c>
       <c r="F32">
-        <v>0.007288936525583267</v>
+        <v>0.02291731198783964</v>
       </c>
       <c r="G32">
-        <v>33767</v>
+        <v>36213</v>
       </c>
       <c r="H32">
-        <v>76110</v>
+        <v>78685</v>
       </c>
       <c r="I32">
-        <v>42343</v>
+        <v>42472</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1415,28 +1415,28 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.03444012999534607</v>
+        <v>0.0526644530473277</v>
       </c>
       <c r="C33">
-        <v>350280</v>
+        <v>442387</v>
       </c>
       <c r="D33">
-        <v>507784</v>
+        <v>602977</v>
       </c>
       <c r="E33">
-        <v>157504</v>
+        <v>160590</v>
       </c>
       <c r="F33">
-        <v>0.005998317152261734</v>
+        <v>0.02595671603921801</v>
       </c>
       <c r="G33">
-        <v>33735</v>
+        <v>35741</v>
       </c>
       <c r="H33">
-        <v>76231</v>
+        <v>78084</v>
       </c>
       <c r="I33">
-        <v>42496</v>
+        <v>42343</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1444,25 +1444,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.04217556491494179</v>
+        <v>0.0325108349788934</v>
       </c>
       <c r="C34">
-        <v>399861</v>
+        <v>353607</v>
       </c>
       <c r="D34">
-        <v>562349</v>
+        <v>512935</v>
       </c>
       <c r="E34">
-        <v>162488</v>
+        <v>159328</v>
       </c>
       <c r="F34">
-        <v>0.006667189300060272</v>
+        <v>0.01580226805526763</v>
       </c>
       <c r="G34">
-        <v>34151</v>
+        <v>36189</v>
       </c>
       <c r="H34">
-        <v>76647</v>
+        <v>78685</v>
       </c>
       <c r="I34">
         <v>42496</v>
@@ -1473,25 +1473,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.01519245654344559</v>
+        <v>0.0208939400035888</v>
       </c>
       <c r="C35">
-        <v>218603</v>
+        <v>230081</v>
       </c>
       <c r="D35">
-        <v>380203</v>
+        <v>394889</v>
       </c>
       <c r="E35">
-        <v>161600</v>
+        <v>164808</v>
       </c>
       <c r="F35">
-        <v>0.004768949002027512</v>
+        <v>0.022656140034087</v>
       </c>
       <c r="G35">
-        <v>33895</v>
+        <v>35613</v>
       </c>
       <c r="H35">
-        <v>76391</v>
+        <v>78109</v>
       </c>
       <c r="I35">
         <v>42496</v>
@@ -1502,28 +1502,28 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.01946939527988434</v>
+        <v>0.04435833299066871</v>
       </c>
       <c r="C36">
-        <v>360930</v>
+        <v>324061</v>
       </c>
       <c r="D36">
-        <v>518586</v>
+        <v>485773</v>
       </c>
       <c r="E36">
-        <v>157656</v>
+        <v>161712</v>
       </c>
       <c r="F36">
-        <v>0.006436433643102646</v>
+        <v>0.02458531106822193</v>
       </c>
       <c r="G36">
-        <v>34079</v>
+        <v>35645</v>
       </c>
       <c r="H36">
-        <v>76396</v>
+        <v>78141</v>
       </c>
       <c r="I36">
-        <v>42317</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1531,28 +1531,28 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.02785393223166466</v>
+        <v>0.02904115291312337</v>
       </c>
       <c r="C37">
-        <v>486837</v>
+        <v>437476</v>
       </c>
       <c r="D37">
-        <v>650529</v>
+        <v>602892</v>
       </c>
       <c r="E37">
-        <v>163692</v>
+        <v>165416</v>
       </c>
       <c r="F37">
-        <v>0.007104404270648956</v>
+        <v>0.0259578269906342</v>
       </c>
       <c r="G37">
-        <v>34823</v>
+        <v>36221</v>
       </c>
       <c r="H37">
-        <v>77165</v>
+        <v>78717</v>
       </c>
       <c r="I37">
-        <v>42342</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1560,28 +1560,28 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.01140169054269791</v>
+        <v>0.04640904895495623</v>
       </c>
       <c r="C38">
-        <v>224334</v>
+        <v>426396</v>
       </c>
       <c r="D38">
-        <v>385087</v>
+        <v>592686</v>
       </c>
       <c r="E38">
-        <v>160753</v>
+        <v>166290</v>
       </c>
       <c r="F38">
-        <v>0.007064826786518097</v>
+        <v>0.01723409804981202</v>
       </c>
       <c r="G38">
-        <v>34055</v>
+        <v>35293</v>
       </c>
       <c r="H38">
-        <v>76551</v>
+        <v>77631</v>
       </c>
       <c r="I38">
-        <v>42496</v>
+        <v>42338</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1589,25 +1589,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.02549437060952187</v>
+        <v>0.08687243994791061</v>
       </c>
       <c r="C39">
-        <v>480950</v>
+        <v>358550</v>
       </c>
       <c r="D39">
-        <v>641454</v>
+        <v>599546</v>
       </c>
       <c r="E39">
-        <v>160504</v>
+        <v>240996</v>
       </c>
       <c r="F39">
-        <v>0.006538171321153641</v>
+        <v>0.02730030007660389</v>
       </c>
       <c r="G39">
-        <v>33991</v>
+        <v>35773</v>
       </c>
       <c r="H39">
-        <v>76487</v>
+        <v>78269</v>
       </c>
       <c r="I39">
         <v>42496</v>
@@ -1618,28 +1618,28 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.02572796866297722</v>
+        <v>0.07542289700359106</v>
       </c>
       <c r="C40">
-        <v>331288</v>
+        <v>344522</v>
       </c>
       <c r="D40">
-        <v>497600</v>
+        <v>563766</v>
       </c>
       <c r="E40">
-        <v>166312</v>
+        <v>219244</v>
       </c>
       <c r="F40">
-        <v>0.01033006235957146</v>
+        <v>0.02437308698426932</v>
       </c>
       <c r="G40">
-        <v>34951</v>
+        <v>35645</v>
       </c>
       <c r="H40">
-        <v>77447</v>
+        <v>77984</v>
       </c>
       <c r="I40">
-        <v>42496</v>
+        <v>42339</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1647,25 +1647,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.02251654863357544</v>
+        <v>0.0576951380353421</v>
       </c>
       <c r="C41">
-        <v>345388</v>
+        <v>348107</v>
       </c>
       <c r="D41">
-        <v>508562</v>
+        <v>509795</v>
       </c>
       <c r="E41">
-        <v>163174</v>
+        <v>161688</v>
       </c>
       <c r="F41">
-        <v>0.008883122354745865</v>
+        <v>0.0187796619720757</v>
       </c>
       <c r="G41">
-        <v>34631</v>
+        <v>36061</v>
       </c>
       <c r="H41">
-        <v>77127</v>
+        <v>78557</v>
       </c>
       <c r="I41">
         <v>42496</v>
@@ -1676,28 +1676,28 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.06116527691483498</v>
+        <v>0.06323455402161926</v>
       </c>
       <c r="C42">
-        <v>342814</v>
+        <v>352987</v>
       </c>
       <c r="D42">
-        <v>573912</v>
+        <v>519581</v>
       </c>
       <c r="E42">
-        <v>231098</v>
+        <v>166594</v>
       </c>
       <c r="F42">
-        <v>0.007101792842149734</v>
+        <v>0.02481417101807892</v>
       </c>
       <c r="G42">
-        <v>34759</v>
+        <v>36125</v>
       </c>
       <c r="H42">
-        <v>77100</v>
+        <v>78467</v>
       </c>
       <c r="I42">
-        <v>42341</v>
+        <v>42342</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1705,28 +1705,28 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.0286395363509655</v>
+        <v>0.02069975610356778</v>
       </c>
       <c r="C43">
-        <v>380674</v>
+        <v>227925</v>
       </c>
       <c r="D43">
-        <v>539778</v>
+        <v>390416</v>
       </c>
       <c r="E43">
-        <v>159104</v>
+        <v>162491</v>
       </c>
       <c r="F43">
-        <v>0.005379896610975266</v>
+        <v>0.0263121590251103</v>
       </c>
       <c r="G43">
-        <v>34151</v>
+        <v>35389</v>
       </c>
       <c r="H43">
-        <v>76647</v>
+        <v>77731</v>
       </c>
       <c r="I43">
-        <v>42496</v>
+        <v>42342</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1734,28 +1734,28 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.031245406717062</v>
+        <v>0.03794532304164022</v>
       </c>
       <c r="C44">
-        <v>433073</v>
+        <v>337362</v>
       </c>
       <c r="D44">
-        <v>600745</v>
+        <v>587557</v>
       </c>
       <c r="E44">
-        <v>167672</v>
+        <v>250195</v>
       </c>
       <c r="F44">
-        <v>0.006518419831991196</v>
+        <v>0.02587797201704234</v>
       </c>
       <c r="G44">
-        <v>34503</v>
+        <v>35421</v>
       </c>
       <c r="H44">
-        <v>76999</v>
+        <v>77762</v>
       </c>
       <c r="I44">
-        <v>42496</v>
+        <v>42341</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1763,28 +1763,28 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.01753689721226692</v>
+        <v>0.05294029996730387</v>
       </c>
       <c r="C45">
-        <v>365028</v>
+        <v>352175</v>
       </c>
       <c r="D45">
-        <v>529524</v>
+        <v>620374</v>
       </c>
       <c r="E45">
-        <v>164496</v>
+        <v>268199</v>
       </c>
       <c r="F45">
-        <v>0.006061602383852005</v>
+        <v>0.02573014993686229</v>
       </c>
       <c r="G45">
-        <v>34247</v>
+        <v>35709</v>
       </c>
       <c r="H45">
-        <v>76743</v>
+        <v>78051</v>
       </c>
       <c r="I45">
-        <v>42496</v>
+        <v>42342</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1792,25 +1792,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.01474310830235481</v>
+        <v>0.0324146180646494</v>
       </c>
       <c r="C46">
-        <v>221225</v>
+        <v>228152</v>
       </c>
       <c r="D46">
-        <v>379729</v>
+        <v>459824</v>
       </c>
       <c r="E46">
-        <v>158504</v>
+        <v>231672</v>
       </c>
       <c r="F46">
-        <v>0.004831790924072266</v>
+        <v>0.02633851300925016</v>
       </c>
       <c r="G46">
-        <v>33607</v>
+        <v>35869</v>
       </c>
       <c r="H46">
-        <v>76103</v>
+        <v>78365</v>
       </c>
       <c r="I46">
         <v>42496</v>
@@ -1821,28 +1821,28 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.02760032564401627</v>
+        <v>0.01920367393177003</v>
       </c>
       <c r="C47">
-        <v>354069</v>
+        <v>207194</v>
       </c>
       <c r="D47">
-        <v>528077</v>
+        <v>381892</v>
       </c>
       <c r="E47">
-        <v>174008</v>
+        <v>174698</v>
       </c>
       <c r="F47">
-        <v>0.009499281644821167</v>
+        <v>0.01950276992283762</v>
       </c>
       <c r="G47">
-        <v>34407</v>
+        <v>35477</v>
       </c>
       <c r="H47">
-        <v>76903</v>
+        <v>77793</v>
       </c>
       <c r="I47">
-        <v>42496</v>
+        <v>42316</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1850,25 +1850,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.05256925523281097</v>
+        <v>0.05740928696468472</v>
       </c>
       <c r="C48">
-        <v>476969</v>
+        <v>347945</v>
       </c>
       <c r="D48">
-        <v>641873</v>
+        <v>619890</v>
       </c>
       <c r="E48">
-        <v>164904</v>
+        <v>271945</v>
       </c>
       <c r="F48">
-        <v>0.008354984223842621</v>
+        <v>0.02538686594925821</v>
       </c>
       <c r="G48">
-        <v>35079</v>
+        <v>35613</v>
       </c>
       <c r="H48">
-        <v>77575</v>
+        <v>78109</v>
       </c>
       <c r="I48">
         <v>42496</v>
@@ -1879,28 +1879,28 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.02539514377713203</v>
+        <v>0.05018599994946271</v>
       </c>
       <c r="C49">
-        <v>469183</v>
+        <v>346495</v>
       </c>
       <c r="D49">
-        <v>632791</v>
+        <v>589542</v>
       </c>
       <c r="E49">
-        <v>163608</v>
+        <v>243047</v>
       </c>
       <c r="F49">
-        <v>0.007749315351247787</v>
+        <v>0.03061363496817648</v>
       </c>
       <c r="G49">
-        <v>34247</v>
+        <v>35453</v>
       </c>
       <c r="H49">
-        <v>76743</v>
+        <v>77633</v>
       </c>
       <c r="I49">
-        <v>42496</v>
+        <v>42180</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1908,28 +1908,28 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.03098901361227036</v>
+        <v>0.06371953804045916</v>
       </c>
       <c r="C50">
-        <v>464567</v>
+        <v>341731</v>
       </c>
       <c r="D50">
-        <v>630375</v>
+        <v>610430</v>
       </c>
       <c r="E50">
-        <v>165808</v>
+        <v>268699</v>
       </c>
       <c r="F50">
-        <v>0.006437748670578003</v>
+        <v>0.02352312905713916</v>
       </c>
       <c r="G50">
-        <v>34215</v>
+        <v>35389</v>
       </c>
       <c r="H50">
-        <v>76711</v>
+        <v>77728</v>
       </c>
       <c r="I50">
-        <v>42496</v>
+        <v>42339</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1937,28 +1937,28 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.02259383350610733</v>
+        <v>0.03348736697807908</v>
       </c>
       <c r="C51">
-        <v>356384</v>
+        <v>408487</v>
       </c>
       <c r="D51">
-        <v>640466</v>
+        <v>571663</v>
       </c>
       <c r="E51">
-        <v>284082</v>
+        <v>163176</v>
       </c>
       <c r="F51">
-        <v>0.01120395585894585</v>
+        <v>0.0326136089861393</v>
       </c>
       <c r="G51">
-        <v>33983</v>
+        <v>36093</v>
       </c>
       <c r="H51">
-        <v>76455</v>
+        <v>78589</v>
       </c>
       <c r="I51">
-        <v>42472</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1966,25 +1966,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.04455260932445526</v>
+        <v>0.01541337999515235</v>
       </c>
       <c r="C52">
-        <v>474771</v>
+        <v>231596</v>
       </c>
       <c r="D52">
-        <v>639643</v>
+        <v>395724</v>
       </c>
       <c r="E52">
-        <v>164872</v>
+        <v>164128</v>
       </c>
       <c r="F52">
-        <v>0.008250463753938675</v>
+        <v>0.01691619900520891</v>
       </c>
       <c r="G52">
-        <v>34183</v>
+        <v>35613</v>
       </c>
       <c r="H52">
-        <v>76679</v>
+        <v>78109</v>
       </c>
       <c r="I52">
         <v>42496</v>
@@ -1995,28 +1995,28 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.0278150849044323</v>
+        <v>0.02935143793001771</v>
       </c>
       <c r="C53">
-        <v>350468</v>
+        <v>336275</v>
       </c>
       <c r="D53">
-        <v>541009</v>
+        <v>517685</v>
       </c>
       <c r="E53">
-        <v>190541</v>
+        <v>181410</v>
       </c>
       <c r="F53">
-        <v>0.006267547607421875</v>
+        <v>0.02586112509015948</v>
       </c>
       <c r="G53">
-        <v>34879</v>
+        <v>36029</v>
       </c>
       <c r="H53">
-        <v>77038</v>
+        <v>78369</v>
       </c>
       <c r="I53">
-        <v>42159</v>
+        <v>42340</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2024,28 +2024,28 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.03176590800285339</v>
+        <v>0.04666503006592393</v>
       </c>
       <c r="C54">
-        <v>358570</v>
+        <v>452881</v>
       </c>
       <c r="D54">
-        <v>519754</v>
+        <v>617939</v>
       </c>
       <c r="E54">
-        <v>161184</v>
+        <v>165058</v>
       </c>
       <c r="F54">
-        <v>0.01462210342288017</v>
+        <v>0.02241493097972125</v>
       </c>
       <c r="G54">
-        <v>33991</v>
+        <v>35613</v>
       </c>
       <c r="H54">
-        <v>76487</v>
+        <v>77953</v>
       </c>
       <c r="I54">
-        <v>42496</v>
+        <v>42340</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2053,25 +2053,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.01889820024371147</v>
+        <v>0.02978425903711468</v>
       </c>
       <c r="C55">
-        <v>221473</v>
+        <v>229912</v>
       </c>
       <c r="D55">
-        <v>383622</v>
+        <v>394176</v>
       </c>
       <c r="E55">
-        <v>162149</v>
+        <v>164264</v>
       </c>
       <c r="F55">
-        <v>0.006850022822618484</v>
+        <v>0.02627599192783237</v>
       </c>
       <c r="G55">
-        <v>34247</v>
+        <v>36061</v>
       </c>
       <c r="H55">
-        <v>76743</v>
+        <v>78557</v>
       </c>
       <c r="I55">
         <v>42496</v>
@@ -2082,28 +2082,28 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.02432282269001007</v>
+        <v>0.03006871603429317</v>
       </c>
       <c r="C56">
-        <v>347277</v>
+        <v>444473</v>
       </c>
       <c r="D56">
-        <v>508397</v>
+        <v>606608</v>
       </c>
       <c r="E56">
-        <v>161120</v>
+        <v>162135</v>
       </c>
       <c r="F56">
-        <v>0.008693065494298935</v>
+        <v>0.02775467792525887</v>
       </c>
       <c r="G56">
-        <v>33671</v>
+        <v>35389</v>
       </c>
       <c r="H56">
-        <v>76167</v>
+        <v>77571</v>
       </c>
       <c r="I56">
-        <v>42496</v>
+        <v>42182</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2111,28 +2111,28 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.05033324286341667</v>
+        <v>0.01866143802180886</v>
       </c>
       <c r="C57">
-        <v>468198</v>
+        <v>224610</v>
       </c>
       <c r="D57">
-        <v>632342</v>
+        <v>387018</v>
       </c>
       <c r="E57">
-        <v>164144</v>
+        <v>162408</v>
       </c>
       <c r="F57">
-        <v>0.007505513727664948</v>
+        <v>0.02650512894615531</v>
       </c>
       <c r="G57">
-        <v>33415</v>
+        <v>35069</v>
       </c>
       <c r="H57">
-        <v>75447</v>
+        <v>77565</v>
       </c>
       <c r="I57">
-        <v>42032</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2140,28 +2140,28 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.03055174276232719</v>
+        <v>0.0593420680379495</v>
       </c>
       <c r="C58">
-        <v>357390</v>
+        <v>410943</v>
       </c>
       <c r="D58">
-        <v>539894</v>
+        <v>576544</v>
       </c>
       <c r="E58">
-        <v>182504</v>
+        <v>165601</v>
       </c>
       <c r="F58">
-        <v>0.007155120372772217</v>
+        <v>0.02595877996645868</v>
       </c>
       <c r="G58">
-        <v>34983</v>
+        <v>35509</v>
       </c>
       <c r="H58">
-        <v>77479</v>
+        <v>77981</v>
       </c>
       <c r="I58">
-        <v>42496</v>
+        <v>42472</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2169,25 +2169,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.04078764095902443</v>
+        <v>0.0204954519867897</v>
       </c>
       <c r="C59">
-        <v>482875</v>
+        <v>235470</v>
       </c>
       <c r="D59">
-        <v>643155</v>
+        <v>474462</v>
       </c>
       <c r="E59">
-        <v>160280</v>
+        <v>238992</v>
       </c>
       <c r="F59">
-        <v>0.009316958487033844</v>
+        <v>0.01685277197975665</v>
       </c>
       <c r="G59">
-        <v>34503</v>
+        <v>36509</v>
       </c>
       <c r="H59">
-        <v>76999</v>
+        <v>79005</v>
       </c>
       <c r="I59">
         <v>42496</v>
@@ -2198,25 +2198,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.0330362357199192</v>
+        <v>0.02666711492929608</v>
       </c>
       <c r="C60">
-        <v>435866</v>
+        <v>239388</v>
       </c>
       <c r="D60">
-        <v>492999</v>
+        <v>478569</v>
       </c>
       <c r="E60">
-        <v>57133</v>
+        <v>239181</v>
       </c>
       <c r="F60">
-        <v>0.007134567946195602</v>
+        <v>0.02573869307525456</v>
       </c>
       <c r="G60">
-        <v>34695</v>
+        <v>35709</v>
       </c>
       <c r="H60">
-        <v>77191</v>
+        <v>78205</v>
       </c>
       <c r="I60">
         <v>42496</v>
@@ -2227,28 +2227,28 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.01407922431826591</v>
+        <v>0.0217330310260877</v>
       </c>
       <c r="C61">
-        <v>227915</v>
+        <v>232820</v>
       </c>
       <c r="D61">
-        <v>393275</v>
+        <v>398100</v>
       </c>
       <c r="E61">
-        <v>165360</v>
+        <v>165280</v>
       </c>
       <c r="F61">
-        <v>0.006506942212581635</v>
+        <v>0.01554381905589253</v>
       </c>
       <c r="G61">
-        <v>34343</v>
+        <v>35293</v>
       </c>
       <c r="H61">
-        <v>76685</v>
+        <v>77789</v>
       </c>
       <c r="I61">
-        <v>42342</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2256,28 +2256,28 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.05671582743525505</v>
+        <v>0.03442799299955368</v>
       </c>
       <c r="C62">
-        <v>361171</v>
+        <v>233355</v>
       </c>
       <c r="D62">
-        <v>586623</v>
+        <v>399181</v>
       </c>
       <c r="E62">
-        <v>225452</v>
+        <v>165826</v>
       </c>
       <c r="F62">
-        <v>0.006436463445425034</v>
+        <v>0.01816490606870502</v>
       </c>
       <c r="G62">
-        <v>34503</v>
+        <v>35821</v>
       </c>
       <c r="H62">
-        <v>76999</v>
+        <v>78141</v>
       </c>
       <c r="I62">
-        <v>42496</v>
+        <v>42320</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2285,28 +2285,28 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.02095189318060875</v>
+        <v>0.03812550497241318</v>
       </c>
       <c r="C63">
-        <v>352437</v>
+        <v>236370</v>
       </c>
       <c r="D63">
-        <v>513893</v>
+        <v>476357</v>
       </c>
       <c r="E63">
-        <v>161456</v>
+        <v>239987</v>
       </c>
       <c r="F63">
-        <v>0.004841338843107224</v>
+        <v>0.0259471230674535</v>
       </c>
       <c r="G63">
-        <v>34503</v>
+        <v>35965</v>
       </c>
       <c r="H63">
-        <v>76999</v>
+        <v>78146</v>
       </c>
       <c r="I63">
-        <v>42496</v>
+        <v>42181</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2314,25 +2314,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.02398059517145157</v>
+        <v>0.04247549304272979</v>
       </c>
       <c r="C64">
-        <v>341652</v>
+        <v>413849</v>
       </c>
       <c r="D64">
-        <v>505684</v>
+        <v>592341</v>
       </c>
       <c r="E64">
-        <v>164032</v>
+        <v>178492</v>
       </c>
       <c r="F64">
-        <v>0.008205581456422806</v>
+        <v>0.02260777808260173</v>
       </c>
       <c r="G64">
-        <v>34567</v>
+        <v>35005</v>
       </c>
       <c r="H64">
-        <v>77063</v>
+        <v>77501</v>
       </c>
       <c r="I64">
         <v>42496</v>
@@ -2343,25 +2343,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.04907110333442688</v>
+        <v>0.03377594600897282</v>
       </c>
       <c r="C65">
-        <v>343172</v>
+        <v>223986</v>
       </c>
       <c r="D65">
-        <v>504380</v>
+        <v>383826</v>
       </c>
       <c r="E65">
-        <v>161208</v>
+        <v>159840</v>
       </c>
       <c r="F65">
-        <v>0.00858272984623909</v>
+        <v>0.01737051899544895</v>
       </c>
       <c r="G65">
-        <v>33607</v>
+        <v>35997</v>
       </c>
       <c r="H65">
-        <v>76103</v>
+        <v>78493</v>
       </c>
       <c r="I65">
         <v>42496</v>
@@ -2372,28 +2372,28 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.04837289452552795</v>
+        <v>0.02047461702022702</v>
       </c>
       <c r="C66">
-        <v>365158</v>
+        <v>228009</v>
       </c>
       <c r="D66">
-        <v>616828</v>
+        <v>391475</v>
       </c>
       <c r="E66">
-        <v>251670</v>
+        <v>163466</v>
       </c>
       <c r="F66">
-        <v>0.01008957624435425</v>
+        <v>0.02505632804241031</v>
       </c>
       <c r="G66">
-        <v>34087</v>
+        <v>36669</v>
       </c>
       <c r="H66">
-        <v>76583</v>
+        <v>79011</v>
       </c>
       <c r="I66">
-        <v>42496</v>
+        <v>42342</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2401,25 +2401,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.01730819046497345</v>
+        <v>0.02849777194205672</v>
       </c>
       <c r="C67">
-        <v>301160</v>
+        <v>233116</v>
       </c>
       <c r="D67">
-        <v>462392</v>
+        <v>401121</v>
       </c>
       <c r="E67">
-        <v>161232</v>
+        <v>168005</v>
       </c>
       <c r="F67">
-        <v>0.01071092858910561</v>
+        <v>0.02365129708778113</v>
       </c>
       <c r="G67">
-        <v>34375</v>
+        <v>35741</v>
       </c>
       <c r="H67">
-        <v>76871</v>
+        <v>78237</v>
       </c>
       <c r="I67">
         <v>42496</v>
@@ -2430,25 +2430,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.02577318623661995</v>
+        <v>0.04074870201293379</v>
       </c>
       <c r="C68">
-        <v>356371</v>
+        <v>351190</v>
       </c>
       <c r="D68">
-        <v>518379</v>
+        <v>511277</v>
       </c>
       <c r="E68">
-        <v>162008</v>
+        <v>160087</v>
       </c>
       <c r="F68">
-        <v>0.006257195025682449</v>
+        <v>0.02334004396107048</v>
       </c>
       <c r="G68">
-        <v>34375</v>
+        <v>35357</v>
       </c>
       <c r="H68">
-        <v>76871</v>
+        <v>77853</v>
       </c>
       <c r="I68">
         <v>42496</v>
@@ -2459,25 +2459,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.03020074963569641</v>
+        <v>0.04234161204658449</v>
       </c>
       <c r="C69">
-        <v>349846</v>
+        <v>232032</v>
       </c>
       <c r="D69">
-        <v>508902</v>
+        <v>397944</v>
       </c>
       <c r="E69">
-        <v>159056</v>
+        <v>165912</v>
       </c>
       <c r="F69">
-        <v>0.005414392799139023</v>
+        <v>0.02181397494859993</v>
       </c>
       <c r="G69">
-        <v>34279</v>
+        <v>35389</v>
       </c>
       <c r="H69">
-        <v>76775</v>
+        <v>77885</v>
       </c>
       <c r="I69">
         <v>42496</v>
@@ -2488,28 +2488,28 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.02699308097362518</v>
+        <v>0.07984213600866497</v>
       </c>
       <c r="C70">
-        <v>355580</v>
+        <v>444387</v>
       </c>
       <c r="D70">
-        <v>621121</v>
+        <v>620641</v>
       </c>
       <c r="E70">
-        <v>265541</v>
+        <v>176254</v>
       </c>
       <c r="F70">
-        <v>0.005951527506113052</v>
+        <v>0.00706543808337301</v>
       </c>
       <c r="G70">
-        <v>34015</v>
+        <v>35869</v>
       </c>
       <c r="H70">
-        <v>76487</v>
+        <v>78210</v>
       </c>
       <c r="I70">
-        <v>42472</v>
+        <v>42341</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2517,25 +2517,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.02553676813840866</v>
+        <v>0.02514783898368478</v>
       </c>
       <c r="C71">
-        <v>349215</v>
+        <v>229546</v>
       </c>
       <c r="D71">
-        <v>624717</v>
+        <v>394682</v>
       </c>
       <c r="E71">
-        <v>275502</v>
+        <v>165136</v>
       </c>
       <c r="F71">
-        <v>0.006910927593708038</v>
+        <v>0.02648314705584198</v>
       </c>
       <c r="G71">
-        <v>34055</v>
+        <v>35837</v>
       </c>
       <c r="H71">
-        <v>76551</v>
+        <v>78333</v>
       </c>
       <c r="I71">
         <v>42496</v>
@@ -2546,28 +2546,28 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.01874078810214996</v>
+        <v>0.0386053390102461</v>
       </c>
       <c r="C72">
-        <v>347999</v>
+        <v>234282</v>
       </c>
       <c r="D72">
-        <v>518631</v>
+        <v>400650</v>
       </c>
       <c r="E72">
-        <v>170632</v>
+        <v>166368</v>
       </c>
       <c r="F72">
-        <v>0.008189179003238678</v>
+        <v>0.02036031894385815</v>
       </c>
       <c r="G72">
-        <v>33895</v>
+        <v>36093</v>
       </c>
       <c r="H72">
-        <v>76236</v>
+        <v>78589</v>
       </c>
       <c r="I72">
-        <v>42341</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2575,25 +2575,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.03441708907485008</v>
+        <v>0.02162569097708911</v>
       </c>
       <c r="C73">
-        <v>460247</v>
+        <v>233070</v>
       </c>
       <c r="D73">
-        <v>621119</v>
+        <v>399622</v>
       </c>
       <c r="E73">
-        <v>160872</v>
+        <v>166552</v>
       </c>
       <c r="F73">
-        <v>0.006402876228094101</v>
+        <v>0.02157946501392871</v>
       </c>
       <c r="G73">
-        <v>34503</v>
+        <v>36381</v>
       </c>
       <c r="H73">
-        <v>76999</v>
+        <v>78877</v>
       </c>
       <c r="I73">
         <v>42496</v>
@@ -2604,28 +2604,28 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.03735378757119179</v>
+        <v>0.03661838604602963</v>
       </c>
       <c r="C74">
-        <v>445509</v>
+        <v>234712</v>
       </c>
       <c r="D74">
-        <v>687581</v>
+        <v>401058</v>
       </c>
       <c r="E74">
-        <v>242072</v>
+        <v>166346</v>
       </c>
       <c r="F74">
-        <v>0.007815543562173843</v>
+        <v>0.02719948510639369</v>
       </c>
       <c r="G74">
-        <v>34343</v>
+        <v>35357</v>
       </c>
       <c r="H74">
-        <v>76685</v>
+        <v>77698</v>
       </c>
       <c r="I74">
-        <v>42342</v>
+        <v>42341</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2633,28 +2633,28 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.02770287916064262</v>
+        <v>0.03213282697834074</v>
       </c>
       <c r="C75">
-        <v>448079</v>
+        <v>457195</v>
       </c>
       <c r="D75">
-        <v>601852</v>
+        <v>697395</v>
       </c>
       <c r="E75">
-        <v>153773</v>
+        <v>240200</v>
       </c>
       <c r="F75">
-        <v>0.01280501112341881</v>
+        <v>0.02545786299742758</v>
       </c>
       <c r="G75">
-        <v>34407</v>
+        <v>35677</v>
       </c>
       <c r="H75">
-        <v>76751</v>
+        <v>78017</v>
       </c>
       <c r="I75">
-        <v>42344</v>
+        <v>42340</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2662,25 +2662,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.03180848062038422</v>
+        <v>0.03756491397507489</v>
       </c>
       <c r="C76">
-        <v>468562</v>
+        <v>353349</v>
       </c>
       <c r="D76">
-        <v>635826</v>
+        <v>616756</v>
       </c>
       <c r="E76">
-        <v>167264</v>
+        <v>263407</v>
       </c>
       <c r="F76">
-        <v>0.006486717611551285</v>
+        <v>0.02562095294706523</v>
       </c>
       <c r="G76">
-        <v>34599</v>
+        <v>35677</v>
       </c>
       <c r="H76">
-        <v>77095</v>
+        <v>78173</v>
       </c>
       <c r="I76">
         <v>42496</v>
@@ -2691,28 +2691,28 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.02194447815418243</v>
+        <v>0.03445458994247019</v>
       </c>
       <c r="C77">
-        <v>340282</v>
+        <v>226193</v>
       </c>
       <c r="D77">
-        <v>504226</v>
+        <v>387657</v>
       </c>
       <c r="E77">
-        <v>163944</v>
+        <v>161464</v>
       </c>
       <c r="F77">
-        <v>0.006338879466056824</v>
+        <v>0.02681323001161218</v>
       </c>
       <c r="G77">
-        <v>34151</v>
+        <v>36605</v>
       </c>
       <c r="H77">
-        <v>76493</v>
+        <v>79101</v>
       </c>
       <c r="I77">
-        <v>42342</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2720,25 +2720,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.02867250517010689</v>
+        <v>0.03745886299293488</v>
       </c>
       <c r="C78">
-        <v>357214</v>
+        <v>207994</v>
       </c>
       <c r="D78">
-        <v>561809</v>
+        <v>361890</v>
       </c>
       <c r="E78">
-        <v>204595</v>
+        <v>153896</v>
       </c>
       <c r="F78">
-        <v>0.006103653460741043</v>
+        <v>0.02663109602872282</v>
       </c>
       <c r="G78">
-        <v>34663</v>
+        <v>36317</v>
       </c>
       <c r="H78">
-        <v>77159</v>
+        <v>78813</v>
       </c>
       <c r="I78">
         <v>42496</v>
@@ -2749,28 +2749,28 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.02373875677585602</v>
+        <v>0.04858784703537822</v>
       </c>
       <c r="C79">
-        <v>353122</v>
+        <v>465079</v>
       </c>
       <c r="D79">
-        <v>514647</v>
+        <v>702103</v>
       </c>
       <c r="E79">
-        <v>161525</v>
+        <v>237024</v>
       </c>
       <c r="F79">
-        <v>0.006610166281461716</v>
+        <v>0.02868139499332756</v>
       </c>
       <c r="G79">
-        <v>34215</v>
+        <v>36029</v>
       </c>
       <c r="H79">
-        <v>76555</v>
+        <v>78525</v>
       </c>
       <c r="I79">
-        <v>42340</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2778,28 +2778,28 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.04834915325045586</v>
+        <v>0.03907858999446034</v>
       </c>
       <c r="C80">
-        <v>459359</v>
+        <v>340395</v>
       </c>
       <c r="D80">
-        <v>625119</v>
+        <v>503387</v>
       </c>
       <c r="E80">
-        <v>165760</v>
+        <v>162992</v>
       </c>
       <c r="F80">
-        <v>0.008034564554691315</v>
+        <v>0.02588941890280694</v>
       </c>
       <c r="G80">
-        <v>34559</v>
+        <v>35901</v>
       </c>
       <c r="H80">
-        <v>76877</v>
+        <v>78397</v>
       </c>
       <c r="I80">
-        <v>42318</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2807,25 +2807,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.03191874548792839</v>
+        <v>0.03712924302089959</v>
       </c>
       <c r="C81">
-        <v>477121</v>
+        <v>232922</v>
       </c>
       <c r="D81">
-        <v>644649</v>
+        <v>399042</v>
       </c>
       <c r="E81">
-        <v>167528</v>
+        <v>166120</v>
       </c>
       <c r="F81">
-        <v>0.006606552749872208</v>
+        <v>0.01589278492610902</v>
       </c>
       <c r="G81">
-        <v>34495</v>
+        <v>35125</v>
       </c>
       <c r="H81">
-        <v>76967</v>
+        <v>77597</v>
       </c>
       <c r="I81">
         <v>42472</v>
@@ -2836,28 +2836,28 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.03706137090921402</v>
+        <v>0.05676143395248801</v>
       </c>
       <c r="C82">
-        <v>359514</v>
+        <v>408965</v>
       </c>
       <c r="D82">
-        <v>524910</v>
+        <v>574375</v>
       </c>
       <c r="E82">
-        <v>165396</v>
+        <v>165410</v>
       </c>
       <c r="F82">
-        <v>0.008064795285463333</v>
+        <v>0.02364159701392055</v>
       </c>
       <c r="G82">
-        <v>34175</v>
+        <v>35613</v>
       </c>
       <c r="H82">
-        <v>76493</v>
+        <v>77954</v>
       </c>
       <c r="I82">
-        <v>42318</v>
+        <v>42341</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2865,25 +2865,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.01601646468043327</v>
+        <v>0.02394236903637648</v>
       </c>
       <c r="C83">
-        <v>217316</v>
+        <v>228048</v>
       </c>
       <c r="D83">
-        <v>376212</v>
+        <v>391816</v>
       </c>
       <c r="E83">
-        <v>158896</v>
+        <v>163768</v>
       </c>
       <c r="F83">
-        <v>0.008100051432847977</v>
+        <v>0.01789158105384558</v>
       </c>
       <c r="G83">
-        <v>33991</v>
+        <v>36317</v>
       </c>
       <c r="H83">
-        <v>76487</v>
+        <v>78813</v>
       </c>
       <c r="I83">
         <v>42496</v>
@@ -2894,25 +2894,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.01496460661292076</v>
+        <v>0.0452788450056687</v>
       </c>
       <c r="C84">
-        <v>230295</v>
+        <v>218307</v>
       </c>
       <c r="D84">
-        <v>395895</v>
+        <v>381851</v>
       </c>
       <c r="E84">
-        <v>165600</v>
+        <v>163544</v>
       </c>
       <c r="F84">
-        <v>0.006539881229400635</v>
+        <v>0.01745679997839034</v>
       </c>
       <c r="G84">
-        <v>34375</v>
+        <v>35325</v>
       </c>
       <c r="H84">
-        <v>76871</v>
+        <v>77821</v>
       </c>
       <c r="I84">
         <v>42496</v>
@@ -2923,28 +2923,28 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.02762379124760628</v>
+        <v>0.02657989307772368</v>
       </c>
       <c r="C85">
-        <v>355145</v>
+        <v>234050</v>
       </c>
       <c r="D85">
-        <v>503236</v>
+        <v>475613</v>
       </c>
       <c r="E85">
-        <v>148091</v>
+        <v>241563</v>
       </c>
       <c r="F85">
-        <v>0.006636384874582291</v>
+        <v>0.03254026302602142</v>
       </c>
       <c r="G85">
-        <v>34631</v>
+        <v>35629</v>
       </c>
       <c r="H85">
-        <v>76969</v>
+        <v>77792</v>
       </c>
       <c r="I85">
-        <v>42338</v>
+        <v>42163</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2952,28 +2952,28 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.04420217126607895</v>
+        <v>0.0332349119707942</v>
       </c>
       <c r="C86">
-        <v>460987</v>
+        <v>229629</v>
       </c>
       <c r="D86">
-        <v>622507</v>
+        <v>395077</v>
       </c>
       <c r="E86">
-        <v>161520</v>
+        <v>165448</v>
       </c>
       <c r="F86">
-        <v>0.009971652179956436</v>
+        <v>0.02054563700221479</v>
       </c>
       <c r="G86">
-        <v>35047</v>
+        <v>35965</v>
       </c>
       <c r="H86">
-        <v>77385</v>
+        <v>78461</v>
       </c>
       <c r="I86">
-        <v>42338</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2981,25 +2981,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.02312326058745384</v>
+        <v>0.04250861599575728</v>
       </c>
       <c r="C87">
-        <v>355063</v>
+        <v>224782</v>
       </c>
       <c r="D87">
-        <v>518591</v>
+        <v>460700</v>
       </c>
       <c r="E87">
-        <v>163528</v>
+        <v>235918</v>
       </c>
       <c r="F87">
-        <v>0.01175778731703758</v>
+        <v>0.02904042904265225</v>
       </c>
       <c r="G87">
-        <v>34247</v>
+        <v>35677</v>
       </c>
       <c r="H87">
-        <v>76743</v>
+        <v>78173</v>
       </c>
       <c r="I87">
         <v>42496</v>
@@ -3010,28 +3010,28 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.02166131883859634</v>
+        <v>0.04604599298909307</v>
       </c>
       <c r="C88">
-        <v>358731</v>
+        <v>346118</v>
       </c>
       <c r="D88">
-        <v>526211</v>
+        <v>611651</v>
       </c>
       <c r="E88">
-        <v>167480</v>
+        <v>265533</v>
       </c>
       <c r="F88">
-        <v>0.007246118038892746</v>
+        <v>0.01407032401766628</v>
       </c>
       <c r="G88">
-        <v>33951</v>
+        <v>35645</v>
       </c>
       <c r="H88">
-        <v>76423</v>
+        <v>78141</v>
       </c>
       <c r="I88">
-        <v>42472</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3039,28 +3039,28 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.02795907855033875</v>
+        <v>0.03014453104697168</v>
       </c>
       <c r="C89">
-        <v>349322</v>
+        <v>232553</v>
       </c>
       <c r="D89">
-        <v>512274</v>
+        <v>398121</v>
       </c>
       <c r="E89">
-        <v>162952</v>
+        <v>165568</v>
       </c>
       <c r="F89">
-        <v>0.007161110639572144</v>
+        <v>0.02876907598692924</v>
       </c>
       <c r="G89">
-        <v>33927</v>
+        <v>35421</v>
       </c>
       <c r="H89">
-        <v>76266</v>
+        <v>77917</v>
       </c>
       <c r="I89">
-        <v>42339</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3068,28 +3068,28 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.02994917705655098</v>
+        <v>0.03955201804637909</v>
       </c>
       <c r="C90">
-        <v>344085</v>
+        <v>425175</v>
       </c>
       <c r="D90">
-        <v>507061</v>
+        <v>597953</v>
       </c>
       <c r="E90">
-        <v>162976</v>
+        <v>172778</v>
       </c>
       <c r="F90">
-        <v>0.006295081228017807</v>
+        <v>0.01495620294008404</v>
       </c>
       <c r="G90">
-        <v>34919</v>
+        <v>35997</v>
       </c>
       <c r="H90">
-        <v>77261</v>
+        <v>78335</v>
       </c>
       <c r="I90">
-        <v>42342</v>
+        <v>42338</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3097,25 +3097,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.01784108951687813</v>
+        <v>0.05845736898481846</v>
       </c>
       <c r="C91">
-        <v>239975</v>
+        <v>456408</v>
       </c>
       <c r="D91">
-        <v>406543</v>
+        <v>620968</v>
       </c>
       <c r="E91">
-        <v>166568</v>
+        <v>164560</v>
       </c>
       <c r="F91">
-        <v>0.00671752542257309</v>
+        <v>0.02337168494705111</v>
       </c>
       <c r="G91">
-        <v>34375</v>
+        <v>35837</v>
       </c>
       <c r="H91">
-        <v>76871</v>
+        <v>78333</v>
       </c>
       <c r="I91">
         <v>42496</v>
@@ -3126,28 +3126,28 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.02501000836491585</v>
+        <v>0.02719241892918944</v>
       </c>
       <c r="C92">
-        <v>358789</v>
+        <v>227760</v>
       </c>
       <c r="D92">
-        <v>592150</v>
+        <v>390578</v>
       </c>
       <c r="E92">
-        <v>233361</v>
+        <v>162818</v>
       </c>
       <c r="F92">
-        <v>0.006544988602399826</v>
+        <v>0.03379201702773571</v>
       </c>
       <c r="G92">
-        <v>34791</v>
+        <v>35709</v>
       </c>
       <c r="H92">
-        <v>77287</v>
+        <v>78052</v>
       </c>
       <c r="I92">
-        <v>42496</v>
+        <v>42343</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3155,25 +3155,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.02946307882666588</v>
+        <v>0.02215067390352488</v>
       </c>
       <c r="C93">
-        <v>471149</v>
+        <v>229849</v>
       </c>
       <c r="D93">
-        <v>631349</v>
+        <v>393393</v>
       </c>
       <c r="E93">
-        <v>160200</v>
+        <v>163544</v>
       </c>
       <c r="F93">
-        <v>0.007311489433050156</v>
+        <v>0.02723281597718596</v>
       </c>
       <c r="G93">
-        <v>33671</v>
+        <v>36061</v>
       </c>
       <c r="H93">
-        <v>76167</v>
+        <v>78557</v>
       </c>
       <c r="I93">
         <v>42496</v>
@@ -3184,25 +3184,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.03415825590491295</v>
+        <v>0.01864692103117704</v>
       </c>
       <c r="C94">
-        <v>478643</v>
+        <v>227243</v>
       </c>
       <c r="D94">
-        <v>644227</v>
+        <v>389963</v>
       </c>
       <c r="E94">
-        <v>165584</v>
+        <v>162720</v>
       </c>
       <c r="F94">
-        <v>0.006278332322835922</v>
+        <v>0.0236962289782241</v>
       </c>
       <c r="G94">
-        <v>33511</v>
+        <v>35997</v>
       </c>
       <c r="H94">
-        <v>76007</v>
+        <v>78493</v>
       </c>
       <c r="I94">
         <v>42496</v>
@@ -3213,28 +3213,28 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.01307363063097</v>
+        <v>0.05371786095201969</v>
       </c>
       <c r="C95">
-        <v>218799</v>
+        <v>330901</v>
       </c>
       <c r="D95">
-        <v>379079</v>
+        <v>574457</v>
       </c>
       <c r="E95">
-        <v>160280</v>
+        <v>243556</v>
       </c>
       <c r="F95">
-        <v>0.005308710038661957</v>
+        <v>0.02313957398291677</v>
       </c>
       <c r="G95">
-        <v>34247</v>
+        <v>36605</v>
       </c>
       <c r="H95">
-        <v>76585</v>
+        <v>79101</v>
       </c>
       <c r="I95">
-        <v>42338</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3242,28 +3242,28 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.0321744978427887</v>
+        <v>0.03379377501551062</v>
       </c>
       <c r="C96">
-        <v>362093</v>
+        <v>229037</v>
       </c>
       <c r="D96">
-        <v>652689</v>
+        <v>393311</v>
       </c>
       <c r="E96">
-        <v>290596</v>
+        <v>164274</v>
       </c>
       <c r="F96">
-        <v>0.008064556866884232</v>
+        <v>0.02494709601160139</v>
       </c>
       <c r="G96">
-        <v>34919</v>
+        <v>35581</v>
       </c>
       <c r="H96">
-        <v>77261</v>
+        <v>77922</v>
       </c>
       <c r="I96">
-        <v>42342</v>
+        <v>42341</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3271,28 +3271,28 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.03197142481803894</v>
+        <v>0.02763520996086299</v>
       </c>
       <c r="C97">
-        <v>482018</v>
+        <v>235000</v>
       </c>
       <c r="D97">
-        <v>647082</v>
+        <v>401970</v>
       </c>
       <c r="E97">
-        <v>165064</v>
+        <v>166970</v>
       </c>
       <c r="F97">
-        <v>0.006718907505273819</v>
+        <v>0.02372741501312703</v>
       </c>
       <c r="G97">
-        <v>34151</v>
+        <v>35773</v>
       </c>
       <c r="H97">
-        <v>76647</v>
+        <v>78112</v>
       </c>
       <c r="I97">
-        <v>42496</v>
+        <v>42339</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3300,28 +3300,28 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.03623203188180923</v>
+        <v>0.02994575700722635</v>
       </c>
       <c r="C98">
-        <v>364683</v>
+        <v>246273</v>
       </c>
       <c r="D98">
-        <v>519504</v>
+        <v>480564</v>
       </c>
       <c r="E98">
-        <v>154821</v>
+        <v>234291</v>
       </c>
       <c r="F98">
-        <v>0.007561966776847839</v>
+        <v>0.02502779092174023</v>
       </c>
       <c r="G98">
-        <v>34119</v>
+        <v>35709</v>
       </c>
       <c r="H98">
-        <v>76303</v>
+        <v>78050</v>
       </c>
       <c r="I98">
-        <v>42184</v>
+        <v>42341</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3329,28 +3329,28 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.01394837349653244</v>
+        <v>0.03805465204641223</v>
       </c>
       <c r="C99">
-        <v>222624</v>
+        <v>351619</v>
       </c>
       <c r="D99">
-        <v>385456</v>
+        <v>597049</v>
       </c>
       <c r="E99">
-        <v>162832</v>
+        <v>245430</v>
       </c>
       <c r="F99">
-        <v>0.007851358503103256</v>
+        <v>0.02225218596868217</v>
       </c>
       <c r="G99">
-        <v>33799</v>
+        <v>35741</v>
       </c>
       <c r="H99">
-        <v>76140</v>
+        <v>77928</v>
       </c>
       <c r="I99">
-        <v>42341</v>
+        <v>42187</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3358,28 +3358,28 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.03202517703175545</v>
+        <v>0.06967756000813097</v>
       </c>
       <c r="C100">
-        <v>354931</v>
+        <v>346829</v>
       </c>
       <c r="D100">
-        <v>632132</v>
+        <v>618107</v>
       </c>
       <c r="E100">
-        <v>277201</v>
+        <v>271278</v>
       </c>
       <c r="F100">
-        <v>0.007047727704048157</v>
+        <v>0.0266829829197377</v>
       </c>
       <c r="G100">
-        <v>34215</v>
+        <v>35997</v>
       </c>
       <c r="H100">
-        <v>76557</v>
+        <v>78493</v>
       </c>
       <c r="I100">
-        <v>42342</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3387,28 +3387,28 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.05498968809843063</v>
+        <v>0.03687810699921101</v>
       </c>
       <c r="C101">
-        <v>400629</v>
+        <v>219661</v>
       </c>
       <c r="D101">
-        <v>583630</v>
+        <v>384340</v>
       </c>
       <c r="E101">
-        <v>183001</v>
+        <v>164679</v>
       </c>
       <c r="F101">
-        <v>0.007248088717460632</v>
+        <v>0.02822718606330454</v>
       </c>
       <c r="G101">
-        <v>33159</v>
+        <v>35709</v>
       </c>
       <c r="H101">
-        <v>75498</v>
+        <v>77894</v>
       </c>
       <c r="I101">
-        <v>42339</v>
+        <v>42185</v>
       </c>
     </row>
   </sheetData>
